--- a/suffix array.xlsx
+++ b/suffix array.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\etf\RBM\seminarski\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20060" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,40 +21,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">ACGTCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGTCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>pre sortiranja:</t>
   </si>
   <si>
     <t>posle soritranja:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GACTACTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTACTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTACTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TACTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTA </t>
+  </si>
+  <si>
+    <t>CTA</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>ACTA</t>
+  </si>
+  <si>
+    <t>ACTACTA</t>
+  </si>
+  <si>
+    <t>CTACTA</t>
+  </si>
+  <si>
+    <t>GACTACTA</t>
+  </si>
+  <si>
+    <t>TACTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,16 +124,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -157,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +220,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,6 +255,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,22 +431,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
@@ -425,167 +458,183 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="3:12">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
       <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="D8" s="3">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="D9" s="3">
         <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3">
         <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="D10" s="3">
         <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="3:12">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="3">
+        <v>6</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="3:12">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -608,24 +657,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
